--- a/Dokumen Analisis Kebutuhan.xlsx
+++ b/Dokumen Analisis Kebutuhan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Firman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Firman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9275BE-4A35-4583-997F-EFCBEB75D68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BFBA00-782F-4CE9-982A-6437D9D06523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Kategori</t>
   </si>
@@ -46,40 +46,43 @@
     <t>Non-Fungsional</t>
   </si>
   <si>
-    <t>Pengguna dapat menerima notifikasi pengingat pajak kendaraan secara otomatis.</t>
-  </si>
-  <si>
-    <t>Pengguna dapat melihat status pajak kendaraan secara real-time.</t>
-  </si>
-  <si>
-    <t>Pengguna dapat melakukan pembayaran pajak melalui berbagai metode digital (e-wallet, m-banking, QRIS).</t>
-  </si>
-  <si>
-    <t>Pengguna dapat mengelola lebih dari satu kendaraan dalam satu akun.</t>
-  </si>
-  <si>
-    <t>Pengguna dapat melihat dan mengunduh riwayat pembayaran pajak.</t>
-  </si>
-  <si>
-    <t>Aplikasi harus memiliki tampilan antarmuka yang ramah pengguna dan mudah dipahami.</t>
-  </si>
-  <si>
-    <t>Sistem harus mampu memberikan konfirmasi pembayaran secara instan dan akurat.</t>
-  </si>
-  <si>
-    <t>Aplikasi harus ringan dan dapat berjalan di berbagai versi perangkat Android.</t>
-  </si>
-  <si>
-    <t>Data pengguna harus disimpan secara aman dan tidak bocor ke pihak ketiga.</t>
-  </si>
-  <si>
-    <t>Pengguna dapat menghubungi layanan bantuan atau customer support melalui aplikasi.</t>
-  </si>
-  <si>
-    <t>Admin dapat memantau dan mengelola transaksi pajak yang masuk dari pengguna.</t>
-  </si>
-  <si>
-    <t>Sistem harus mampu menangani minimal 1000 transaksi per hari tanpa penurunan performa.</t>
+    <t>Pengguna dapat memesan layanan transportasi secara real-time</t>
+  </si>
+  <si>
+    <t>Pengguna dapat melakukan pemesanan makanan dari berbagai mitra resto</t>
+  </si>
+  <si>
+    <t>Pengguna dapat mengirim barang ke lokasi tujuan dengan pilihan layanan instan/hemat</t>
+  </si>
+  <si>
+    <t>Pengguna dapat melacak posisi driver secara langsung</t>
+  </si>
+  <si>
+    <t>Pengguna dapat melakukan pembayaran digital maupun tunai</t>
+  </si>
+  <si>
+    <t>Pengguna dapat melakukan chat dengan driver secara langsung</t>
+  </si>
+  <si>
+    <t>Pengguna dapat melihat dan mengelola riwayat pesanan</t>
+  </si>
+  <si>
+    <t>Aplikasi harus memiliki antarmuka modern dan intuitif</t>
+  </si>
+  <si>
+    <t>Sistem harus responsif dan cepat dalam memberikan feedback</t>
+  </si>
+  <si>
+    <t>Aplikasi harus ringan dan kompatibel di berbagai perangkat Android/iOS</t>
+  </si>
+  <si>
+    <t>Data pengguna harus diamankan dan dienkripsi</t>
+  </si>
+  <si>
+    <t>Pengguna dapat mengatur lokasi favorit atau alamat tersimpan</t>
+  </si>
+  <si>
+    <t>Pengguna dapat memberikan rating dan tip kepada driver</t>
   </si>
   <si>
     <t>Tinggi</t>
@@ -94,95 +97,82 @@
     <t>Sistem</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Wawancara Sari</t>
-  </si>
-  <si>
-    <t>Wawancara Raka</t>
-  </si>
-  <si>
-    <t>Wawancara Budi</t>
-  </si>
-  <si>
-    <t>Benchmark UI/UX</t>
-  </si>
-  <si>
-    <t>Observasi Proses Pembayaran</t>
+    <t>Observasi Aplikasi Sejenis</t>
+  </si>
+  <si>
+    <t>Benchmark Gojek/GrabFood</t>
+  </si>
+  <si>
+    <t>Wawancara Calon Pengguna</t>
+  </si>
+  <si>
+    <t>Observasi UX Tracking</t>
+  </si>
+  <si>
+    <t>Observasi Proses Transaksi</t>
+  </si>
+  <si>
+    <t>Benchmark UX Komunikasi</t>
+  </si>
+  <si>
+    <t>Wawancara Mahasiswa &amp; UMKM</t>
+  </si>
+  <si>
+    <t>Benchmark UI/UX Mobile</t>
+  </si>
+  <si>
+    <t>Best Practice Aplikasi Mobile</t>
   </si>
   <si>
     <t>Benchmark Teknis</t>
   </si>
   <si>
-    <t>Best Practice Keamanan</t>
-  </si>
-  <si>
-    <t>Observasi Admin</t>
-  </si>
-  <si>
-    <t>Fitur utama untuk menjaga kepatuhan pengguna terhadap pajak tahunan.</t>
-  </si>
-  <si>
-    <t>Dashboard utama harus menampilkan informasi ini secara langsung.</t>
-  </si>
-  <si>
-    <t>Perlu integrasi dengan penyedia pembayaran digital lokal (Gopay, OVO, QRIS).</t>
-  </si>
-  <si>
-    <t>Fitur ini penting untuk pengguna dengan banyak kendaraan seperti pemilik rental.</t>
-  </si>
-  <si>
-    <t>Menambah rasa aman pengguna dengan dokumentasi pembayaran yang jelas.</t>
-  </si>
-  <si>
-    <t>Gunakan prinsip desain minimalis, cocok untuk berbagai kalangan usia.</t>
-  </si>
-  <si>
-    <t>Feedback instan penting untuk menumbuhkan kepercayaan terhadap sistem.</t>
-  </si>
-  <si>
-    <t>Optimasi performa penting agar tidak memberatkan perangkat kelas bawah.</t>
-  </si>
-  <si>
-    <t>Gunakan enkripsi standar industri dan sistem otentikasi yang kuat.</t>
-  </si>
-  <si>
-    <t>Fitur live chat atau FAQ sangat membantu bagi pengguna awam.</t>
-  </si>
-  <si>
-    <t>Perlu backend dashboard untuk kebutuhan operasional dan monitoring.</t>
-  </si>
-  <si>
-    <t>Dukungan skalabilitas penting untuk antisipasi peningkatan jumlah pengguna.</t>
-  </si>
-  <si>
-    <r>
-      <t>Dokumen Analisis Kebutuhan (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OtoSmartaX)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Berisi: kebutuhan fungsional &amp; non-fungsional, serta skala prioritas. (di sini saya juga menambahkan Aktor, Sumber Riset dan Keterangan Tambahan)
-Format: Excel (.xlsx)</t>
-    </r>
+    <t>Best Practice Keamanan Data</t>
+  </si>
+  <si>
+    <t>Benchmark UX Gojek/Grab</t>
+  </si>
+  <si>
+    <t>Observasi Pengguna</t>
+  </si>
+  <si>
+    <t>Fitur utama seperti taX Ride untuk antar jemput cepat dan akurat</t>
+  </si>
+  <si>
+    <t>Dilengkapi filter kategori makanan, pencarian, dan promo</t>
+  </si>
+  <si>
+    <t>Fitur penting untuk UMKM dan keperluan pribadi</t>
+  </si>
+  <si>
+    <t>Ditampilkan dalam bentuk peta interaktif</t>
+  </si>
+  <si>
+    <t>Mendukung metode QRIS, e-wallet, dan bayar langsung</t>
+  </si>
+  <si>
+    <t>Chat sederhana penting untuk koordinasi jemput dan antar</t>
+  </si>
+  <si>
+    <t>Disertai status dan detail biaya</t>
+  </si>
+  <si>
+    <t>Desain minimalis, tombol jelas, dan navigasi sederhana</t>
+  </si>
+  <si>
+    <t>Feedback instan saat transaksi atau perubahan status layanan</t>
+  </si>
+  <si>
+    <t>Ukuran APK kecil, performa optimal di device spesifikasi rendah</t>
+  </si>
+  <si>
+    <t>Gunakan enkripsi standar industri dan autentikasi OTP/2FA</t>
+  </si>
+  <si>
+    <t>Mempermudah pemesanan ulang ke tempat yang sering digunakan</t>
+  </si>
+  <si>
+    <t>Meningkatkan kualitas layanan melalui feedback</t>
   </si>
 </sst>
 </file>
@@ -241,14 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,20 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="69.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="75" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="54.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -591,248 +577,263 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>45</v>
+      <c r="F14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
